--- a/ELM/SLR_arissetyawan_27_jan_2019.xlsx
+++ b/ELM/SLR_arissetyawan_27_jan_2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__PASCA__\_THESIS_\ELM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="784"/>
   </bookViews>
@@ -21,12 +16,12 @@
     <sheet name="Dataset" sheetId="7" r:id="rId7"/>
     <sheet name="QUERY-USED" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1776">
   <si>
     <t>No</t>
   </si>
@@ -6212,11 +6207,40 @@
   <si>
     <t>Comparison of modified teaching learning-based optimization and extreme learning machine for classification of multiple power signal disturbances</t>
   </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>ELM,H-ELM</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>ELM-FM</t>
+  </si>
+  <si>
+    <t>STARFM</t>
+  </si>
+  <si>
+    <t>However, the sophisticated projection, e.g., sparse repre_xFFFE_sentation, is always computationally complex and difficult to be
+implemented on large patches, which cannot grasp enough local
+structural information in the coarse patches</t>
+  </si>
+  <si>
+    <t>Landsat ETM+, MODIS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="28">
     <font>
       <sz val="11"/>
@@ -6847,16 +6871,6 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6872,6 +6886,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6931,18 +6955,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6967,7 +6982,6 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7051,7 +7065,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -7069,28 +7083,19 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="182"/>
-        <c:axId val="140033408"/>
-        <c:axId val="159487104"/>
+        <c:axId val="151484288"/>
+        <c:axId val="151565056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140033408"/>
+        <c:axId val="151484288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7110,7 +7115,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159487104"/>
+        <c:crossAx val="151565056"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7118,11 +7123,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159487104"/>
+        <c:axId val="151565056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7136,7 +7140,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="6480">
@@ -7153,7 +7156,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140033408"/>
+        <c:crossAx val="151484288"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7181,25 +7184,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7224,7 +7218,6 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7316,7 +7309,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -7419,7 +7412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -7437,25 +7430,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="159569792"/>
-        <c:axId val="162594816"/>
+        <c:axId val="152319488"/>
+        <c:axId val="152321408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159569792"/>
+        <c:axId val="152319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7482,7 +7466,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7502,7 +7485,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162594816"/>
+        <c:crossAx val="152321408"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7510,11 +7493,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162594816"/>
+        <c:axId val="152321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7551,7 +7533,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7568,7 +7549,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159569792"/>
+        <c:crossAx val="152319488"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7581,7 +7562,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7616,25 +7596,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7732,7 +7703,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -7750,28 +7721,19 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="182"/>
-        <c:axId val="162648832"/>
-        <c:axId val="162650368"/>
+        <c:axId val="151183744"/>
+        <c:axId val="151185280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162648832"/>
+        <c:axId val="151183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7791,7 +7753,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162650368"/>
+        <c:crossAx val="151185280"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7799,11 +7761,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162650368"/>
+        <c:axId val="151185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7817,7 +7778,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7834,7 +7794,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162648832"/>
+        <c:crossAx val="151183744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7862,25 +7822,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7905,12 +7856,10 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8029,31 +7978,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47B7-4AA4-911F-6FE9EE051C5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="162678272"/>
-        <c:axId val="162680192"/>
+        <c:dLbls/>
+        <c:axId val="151008384"/>
+        <c:axId val="151010304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162678272"/>
+        <c:axId val="151008384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2018"/>
           <c:min val="1995"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8090,7 +8031,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8110,17 +8050,16 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162680192"/>
+        <c:crossAx val="151010304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162680192"/>
+        <c:axId val="151010304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8157,7 +8096,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8177,7 +8115,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162678272"/>
+        <c:crossAx val="151008384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -8206,25 +8144,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8249,12 +8178,10 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8343,29 +8270,21 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-00DC-4464-B415-1B084D34D7C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="162688384"/>
-        <c:axId val="165545088"/>
+        <c:dLbls/>
+        <c:axId val="151038976"/>
+        <c:axId val="151040768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162688384"/>
+        <c:axId val="151038976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8379,7 +8298,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8399,17 +8317,16 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165545088"/>
+        <c:crossAx val="151040768"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165545088"/>
+        <c:axId val="151040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8423,7 +8340,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8443,7 +8359,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162688384"/>
+        <c:crossAx val="151038976"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -8472,25 +8388,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8515,7 +8422,6 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -8587,7 +8493,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -8605,24 +8511,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="182"/>
-        <c:axId val="165602048"/>
-        <c:axId val="165603968"/>
+        <c:axId val="151138688"/>
+        <c:axId val="151140608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165602048"/>
+        <c:axId val="151138688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8649,7 +8547,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8669,7 +8566,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165603968"/>
+        <c:crossAx val="151140608"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8677,11 +8574,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165603968"/>
+        <c:axId val="151140608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8718,7 +8614,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8735,7 +8630,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165602048"/>
+        <c:crossAx val="151138688"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8764,25 +8659,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8807,7 +8693,6 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -8975,7 +8860,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -8993,28 +8878,19 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="182"/>
-        <c:axId val="165629312"/>
-        <c:axId val="165643392"/>
+        <c:axId val="151247872"/>
+        <c:axId val="151253760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165629312"/>
+        <c:axId val="151247872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -9034,7 +8910,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165643392"/>
+        <c:crossAx val="151253760"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9042,11 +8918,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165643392"/>
+        <c:axId val="151253760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9060,7 +8935,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -9077,7 +8951,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165629312"/>
+        <c:crossAx val="151247872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9106,7 +8980,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9592,21 +9466,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="A2:XFD19"/>
+      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -9621,7 +9495,7 @@
     <col min="9" max="9" width="16.7109375" style="10"/>
     <col min="10" max="10" width="15.140625" style="10"/>
     <col min="11" max="11" width="7.28515625" style="11"/>
-    <col min="12" max="12" width="6.28515625" style="10"/>
+    <col min="12" max="12" width="6.7109375" style="10" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="11"/>
     <col min="14" max="14" width="10.5703125" style="11"/>
     <col min="15" max="15" width="17.85546875" style="10"/>
@@ -9649,85 +9523,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="16" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="4">
         <v>1</v>
       </c>
@@ -9735,10 +9609,10 @@
         <f>1+I2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
@@ -9781,7 +9655,7 @@
       <c r="AB2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="16"/>
+      <c r="AC2" s="19"/>
       <c r="AD2" s="5">
         <v>1</v>
       </c>
@@ -9791,7 +9665,7 @@
       <c r="AF2" s="5">
         <v>3</v>
       </c>
-      <c r="AG2" s="14"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1">
       <c r="A3" s="6">
@@ -10321,89 +10195,91 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="18">
+      <c r="AG8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>2013</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="14">
         <v>0.88</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19" t="s">
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19" t="s">
+      <c r="T9" s="15"/>
+      <c r="U9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Y9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="14" t="s">
         <v>1762</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="14">
         <v>0</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="14">
         <v>1</v>
       </c>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="19" t="s">
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="18" t="s">
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="14" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10571,7 +10447,9 @@
       <c r="AF11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AG11" s="6"/>
+      <c r="AG11" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:33" ht="18.75" customHeight="1">
       <c r="A12" s="6">
@@ -10651,7 +10529,9 @@
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="6"/>
+      <c r="AG12" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:33" ht="18.75" customHeight="1">
       <c r="A13" s="6">
@@ -10727,7 +10607,9 @@
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="6"/>
+      <c r="AG13" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1">
       <c r="A14" s="6">
@@ -10805,7 +10687,9 @@
         <v>1749</v>
       </c>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="6"/>
+      <c r="AG14" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:33" ht="18.75" customHeight="1">
       <c r="A15" s="6">
@@ -10887,7 +10771,9 @@
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="6"/>
+      <c r="AG15" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:33" ht="18.75" customHeight="1">
       <c r="A16" s="6">
@@ -11053,7 +10939,9 @@
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:33" ht="18.75" customHeight="1">
       <c r="A18" s="6">
@@ -11097,25 +10985,45 @@
         <v>41</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="O18" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>1770</v>
+      </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>1</v>
+      </c>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="7"/>
+      <c r="AD18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="6"/>
+      <c r="AG18" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:33" ht="18.75" customHeight="1">
       <c r="A19" s="6">
@@ -11153,31 +11061,55 @@
         <v>40</v>
       </c>
       <c r="L19" s="6">
-        <v>1.4339999999999999</v>
+        <v>1.528</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+        <v>1758</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>1770</v>
+      </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="Z19" s="6" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>1</v>
+      </c>
       <c r="AC19" s="8"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
+      <c r="AD19" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="6"/>
+      <c r="AG19" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:33" ht="18.75" customHeight="1">
       <c r="A20" s="6">
@@ -11227,7 +11159,9 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -11289,7 +11223,9 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+      <c r="U21" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -11351,7 +11287,9 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="U22" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -11413,7 +11351,9 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="U23" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -11475,7 +11415,9 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -11537,7 +11479,9 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="U25" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
@@ -25815,6 +25759,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AG2"/>
@@ -25823,16 +25777,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -25869,7 +25813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -28095,7 +28039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView topLeftCell="A89" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -30325,7 +30269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B148"/>
   <sheetViews>
     <sheetView topLeftCell="A139" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -31085,7 +31029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -31107,7 +31051,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -31116,13 +31060,13 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>1660</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17"/>
+      <c r="A2" s="22"/>
       <c r="D2" t="s">
         <v>1661</v>
       </c>
@@ -31344,19 +31288,19 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>1659</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="22" t="s">
         <v>1660</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="17"/>
+      <c r="A71" s="22"/>
       <c r="B71" t="s">
         <v>1659</v>
       </c>
@@ -31648,7 +31592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -32013,7 +31957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D26"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -32289,7 +32233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">

--- a/ELM/SLR_arissetyawan_27_jan_2019.xlsx
+++ b/ELM/SLR_arissetyawan_27_jan_2019.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1779">
   <si>
     <t>No</t>
   </si>
@@ -6235,6 +6235,15 @@
   </si>
   <si>
     <t>Landsat ETM+, MODIS</t>
+  </si>
+  <si>
+    <t>SLFN, ELM,K-ELM</t>
+  </si>
+  <si>
+    <t>ECSELM</t>
+  </si>
+  <si>
+    <t>facing,dressing,vocal</t>
   </si>
 </sst>
 </file>
@@ -9477,10 +9486,10 @@
   <dimension ref="A1:AG297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -11153,9 +11162,13 @@
         <v>41</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>1776</v>
+      </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>1777</v>
+      </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -11166,14 +11179,28 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="Z20" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20" s="7" t="s">
+        <v>1749</v>
+      </c>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="6"/>
+      <c r="AG20" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:33" ht="18.75" customHeight="1">
       <c r="A21" s="6">

--- a/ELM/SLR_arissetyawan_27_jan_2019.xlsx
+++ b/ELM/SLR_arissetyawan_27_jan_2019.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="1780">
   <si>
     <t>No</t>
   </si>
@@ -6244,6 +6244,9 @@
   </si>
   <si>
     <t>facing,dressing,vocal</t>
+  </si>
+  <si>
+    <t>complexity</t>
   </si>
 </sst>
 </file>
@@ -6839,7 +6842,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6878,6 +6881,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9486,10 +9492,10 @@
   <dimension ref="A1:AG297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -9510,9 +9516,9 @@
     <col min="15" max="15" width="17.85546875" style="10"/>
     <col min="16" max="16" width="10.42578125" style="10"/>
     <col min="17" max="17" width="13.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="11"/>
-    <col min="19" max="20" width="13.42578125" style="11"/>
-    <col min="21" max="21" width="11.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="11"/>
+    <col min="20" max="21" width="13.42578125" style="11"/>
     <col min="22" max="22" width="7.85546875" style="11"/>
     <col min="23" max="23" width="4.7109375" style="11"/>
     <col min="24" max="24" width="11.85546875" style="11"/>
@@ -9532,85 +9538,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="21" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4">
         <v>1</v>
       </c>
@@ -9618,10 +9624,10 @@
         <f>1+I2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
@@ -9632,16 +9638,16 @@
         <v>20</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>25</v>
@@ -9664,7 +9670,7 @@
       <c r="AB2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="19"/>
+      <c r="AC2" s="20"/>
       <c r="AD2" s="5">
         <v>1</v>
       </c>
@@ -9674,7 +9680,7 @@
       <c r="AF2" s="5">
         <v>3</v>
       </c>
-      <c r="AG2" s="21"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1">
       <c r="A3" s="6">
@@ -9727,16 +9733,16 @@
         <v>44</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V3" s="7">
         <v>160</v>
@@ -9824,16 +9830,16 @@
         <v>64</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>46</v>
@@ -9914,16 +9920,16 @@
         <v>76</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>46</v>
@@ -10007,12 +10013,12 @@
       <c r="Q6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="7">
         <v>24000</v>
       </c>
@@ -10093,12 +10099,12 @@
       <c r="Q7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7" t="s">
@@ -10177,12 +10183,12 @@
       <c r="Q8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -10208,87 +10214,87 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="14">
+    <row r="9" spans="1:33" s="19" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>2013</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <v>0.88</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="16" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="s">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="15" t="s">
         <v>1762</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="15">
         <v>0</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="15">
         <v>1</v>
       </c>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="15" t="s">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="14" t="s">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10341,12 +10347,12 @@
       <c r="Q10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="U10" s="7"/>
       <c r="V10" s="13" t="s">
         <v>50</v>
       </c>
@@ -10423,12 +10429,12 @@
       <c r="Q11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="R11" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7" t="s">
@@ -10511,14 +10517,14 @@
       <c r="Q12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7" t="s">
-        <v>1742</v>
-      </c>
+      <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -10591,12 +10597,12 @@
       <c r="Q13" s="7" t="s">
         <v>1745</v>
       </c>
-      <c r="R13" s="7"/>
+      <c r="R13" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -10669,12 +10675,12 @@
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -10752,13 +10758,13 @@
         <v>1753</v>
       </c>
       <c r="R15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>1754</v>
       </c>
-      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U15" s="7"/>
       <c r="V15" s="7">
         <v>100</v>
       </c>
@@ -10837,12 +10843,12 @@
       <c r="Q16" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="R16" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -10920,13 +10926,13 @@
         <v>1753</v>
       </c>
       <c r="R17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U17" s="7"/>
       <c r="V17" s="7">
         <v>200</v>
       </c>
@@ -11004,13 +11010,13 @@
         <v>1769</v>
       </c>
       <c r="R18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="7" t="s">
         <v>1770</v>
       </c>
-      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -11088,13 +11094,13 @@
         <v>1772</v>
       </c>
       <c r="R19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>1770</v>
       </c>
-      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -11169,18 +11175,18 @@
       <c r="Q20" s="7" t="s">
         <v>1777</v>
       </c>
-      <c r="R20" s="7"/>
+      <c r="R20" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="6" t="s">
-        <v>1758</v>
+      <c r="Z20" s="6">
+        <v>0</v>
       </c>
       <c r="AA20" s="6" t="s">
         <v>1778</v>
@@ -11245,14 +11251,16 @@
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>1779</v>
+      </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -11261,10 +11269,14 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="8"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="6"/>
+      <c r="AG21" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:33" ht="18.75" customHeight="1">
       <c r="A22" s="6">
@@ -11311,12 +11323,12 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="R22" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -11325,7 +11337,9 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="8"/>
-      <c r="AD22" s="7"/>
+      <c r="AD22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="6"/>
@@ -11375,12 +11389,12 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -11439,12 +11453,12 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="R24" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -11503,12 +11517,12 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
@@ -25785,7 +25799,7 @@
       <c r="AG297" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -25802,7 +25816,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <hyperlinks>
@@ -31078,7 +31091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -31087,13 +31100,13 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>1660</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="D2" t="s">
         <v>1661</v>
       </c>
@@ -31315,19 +31328,19 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>1659</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="23" t="s">
         <v>1660</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" t="s">
         <v>1659</v>
       </c>
